--- a/labdata/4.18独立行分类/实验3/准确召回.xlsx
+++ b/labdata/4.18独立行分类/实验3/准确召回.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainto96\workspace\HeaderXtractor\labdata\4.18\实验3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainto96\workspace\HeaderXtractor\labdata\4.18独立行分类\实验3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,7 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>准确率提升（相比于实验2）</t>
+    <t>召回率提升（相比于实验2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,14 +460,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">

--- a/labdata/4.18独立行分类/实验3/准确召回.xlsx
+++ b/labdata/4.18独立行分类/实验3/准确召回.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SVM-J48" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>abstract</t>
   </si>
@@ -100,6 +101,30 @@
   </si>
   <si>
     <t>召回率提升（相比于实验2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召回率_SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F值_svm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率_SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率_J48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召回率_J48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F值_J48</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -891,4 +916,161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.101694915254</v>
+      </c>
+      <c r="D2">
+        <v>0.18461538461499999</v>
+      </c>
+      <c r="E2">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.99099099099099996</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.70512820512800001</v>
+      </c>
+      <c r="D3">
+        <v>0.82397003745300001</v>
+      </c>
+      <c r="E3">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.96638655462199996</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.52154195011299997</v>
+      </c>
+      <c r="D4">
+        <v>0.67746686303400006</v>
+      </c>
+      <c r="E4">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.96428571428599996</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.55670103092800005</v>
+      </c>
+      <c r="D5">
+        <v>0.70588235294099999</v>
+      </c>
+      <c r="E5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.97183098591499995</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.445161290323</v>
+      </c>
+      <c r="D6">
+        <v>0.61061946902700004</v>
+      </c>
+      <c r="E6">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>